--- a/arch-framework/framework-automate/automate-core/src/test/resources/uni-life-sys.xlsx
+++ b/arch-framework/framework-automate/automate-core/src/test/resources/uni-life-sys.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12690"/>
+    <workbookView windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="23" r:id="rId1"/>
+    <sheet name="Pms" sheetId="24" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="144">
   <si>
     <t>表名/Table</t>
   </si>
@@ -88,57 +89,63 @@
     <t>时间戳</t>
   </si>
   <si>
-    <t>项目配置/FormProjectConfig</t>
+    <t>项目配置/FormSchemaConfig</t>
   </si>
   <si>
     <t>id主键</t>
   </si>
   <si>
+    <t>schemaId</t>
+  </si>
+  <si>
+    <t>项目id</t>
+  </si>
+  <si>
+    <t>mvnJson</t>
+  </si>
+  <si>
+    <t>技术框架</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>开发环境配置</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>仓库地址</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>docker配置</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>是否逻辑删除</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>datatime</t>
+  </si>
+  <si>
+    <t>项目业务/FormBiz</t>
+  </si>
+  <si>
     <t>projectId</t>
   </si>
   <si>
-    <t>项目id</t>
-  </si>
-  <si>
-    <t>mvnJson</t>
-  </si>
-  <si>
-    <t>技术框架</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>卡发环境配置</t>
-  </si>
-  <si>
-    <t>git</t>
-  </si>
-  <si>
-    <t>仓库地址</t>
-  </si>
-  <si>
-    <t>docker</t>
-  </si>
-  <si>
-    <t>docker配置</t>
-  </si>
-  <si>
-    <t>deleted</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>是否逻辑删除</t>
-  </si>
-  <si>
-    <t>datatime</t>
-  </si>
-  <si>
-    <t>项目业务/FormBiz</t>
-  </si>
-  <si>
     <t>bizName</t>
   </si>
   <si>
@@ -181,22 +188,34 @@
     <t>表单接口/FormInterface</t>
   </si>
   <si>
+    <t>formCategory</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
     <t>interfaceName</t>
   </si>
   <si>
-    <t>接口名称</t>
+    <t>接口</t>
   </si>
   <si>
     <t>interfaceCode</t>
   </si>
   <si>
-    <t>接口</t>
+    <t>接口参数</t>
+  </si>
+  <si>
+    <t>interfaceUri</t>
+  </si>
+  <si>
+    <t>接口uri</t>
   </si>
   <si>
     <t>paramJson</t>
   </si>
   <si>
-    <t>接口参数</t>
+    <t>json 参数</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -205,18 +224,15 @@
     <t>表单定义/FormDefinition</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>表单分类</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>表单分类</t>
-  </si>
-  <si>
-    <t>schemaId</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -244,6 +260,9 @@
     <t>fieldId</t>
   </si>
   <si>
+    <t>bingint</t>
+  </si>
+  <si>
     <t>表单部署字段ID</t>
   </si>
   <si>
@@ -253,7 +272,7 @@
     <t>表单部署布局ID</t>
   </si>
   <si>
-    <t>version</t>
+    <t>ver</t>
   </si>
   <si>
     <t>2</t>
@@ -268,36 +287,48 @@
     <t>表单描述</t>
   </si>
   <si>
+    <t>definitionJson</t>
+  </si>
+  <si>
+    <t>定义json</t>
+  </si>
+  <si>
+    <t>逻辑删除</t>
+  </si>
+  <si>
     <t>表单实例/FormTableInstance</t>
   </si>
   <si>
+    <t>表单ID</t>
+  </si>
+  <si>
+    <t>formDefinitionId</t>
+  </si>
+  <si>
+    <t>interfaceIds</t>
+  </si>
+  <si>
+    <t>表单对应的表ID</t>
+  </si>
+  <si>
+    <t>表单对应数据库中生成的table name</t>
+  </si>
+  <si>
+    <t>formTableId</t>
+  </si>
+  <si>
+    <t>formTableName</t>
+  </si>
+  <si>
+    <t>表单字段/FormField</t>
+  </si>
+  <si>
+    <t>表单Id</t>
+  </si>
+  <si>
     <t>formId</t>
   </si>
   <si>
-    <t>表单ID</t>
-  </si>
-  <si>
-    <t>formTableId</t>
-  </si>
-  <si>
-    <t>表单对应的表ID</t>
-  </si>
-  <si>
-    <t>formTableName</t>
-  </si>
-  <si>
-    <t>表单对应数据库中生成的table name</t>
-  </si>
-  <si>
-    <t>formDescr</t>
-  </si>
-  <si>
-    <t>表单字段/FormField</t>
-  </si>
-  <si>
-    <t>表单Id</t>
-  </si>
-  <si>
     <t>字段Id</t>
   </si>
   <si>
@@ -328,6 +359,9 @@
     <t>表单字段类型/FormFieldTyp</t>
   </si>
   <si>
+    <t>主键id</t>
+  </si>
+  <si>
     <t>typCode</t>
   </si>
   <si>
@@ -346,13 +380,13 @@
     <t>字段id</t>
   </si>
   <si>
-    <t>optionId</t>
+    <t>optionName</t>
   </si>
   <si>
     <t>选项id</t>
   </si>
   <si>
-    <t>optionName</t>
+    <t>optionCode</t>
   </si>
   <si>
     <t>选项名</t>
@@ -367,6 +401,9 @@
     <t>表单布局/FormLayout</t>
   </si>
   <si>
+    <t>主键</t>
+  </si>
+  <si>
     <t>tableId</t>
   </si>
   <si>
@@ -382,22 +419,16 @@
     <t>layoutCode</t>
   </si>
   <si>
+    <t>255</t>
+  </si>
+  <si>
     <t>布局码</t>
   </si>
   <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>样式</t>
-  </si>
-  <si>
-    <t>editorSourceId</t>
-  </si>
-  <si>
-    <t>原sourceId</t>
+    <t>layoutStyle</t>
+  </si>
+  <si>
+    <t>布局css样式</t>
   </si>
   <si>
     <t>表单数据/FromBytearray</t>
@@ -1110,11 +1141,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1452,10 +1483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1579,7 +1610,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1706,10 +1737,10 @@
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>23</v>
@@ -1717,7 +1748,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
@@ -1732,7 +1763,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1740,7 +1771,7 @@
     <row r="17" customFormat="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -1752,7 +1783,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1760,7 +1791,7 @@
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
@@ -1772,15 +1803,15 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>15</v>
@@ -1792,9 +1823,9 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -1812,18 +1843,18 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1832,9 +1863,9 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -1849,7 +1880,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1857,23 +1888,23 @@
     <row r="23" customFormat="1" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
@@ -1888,7 +1919,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1927,7 @@
     <row r="25" customFormat="1" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -1908,7 +1939,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="5" t="s">
         <v>27</v>
       </c>
@@ -1916,7 +1947,7 @@
     <row r="26" customFormat="1" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -1928,15 +1959,15 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -1948,9 +1979,9 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
@@ -1965,7 +1996,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1973,23 +2004,23 @@
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
@@ -2004,7 +2035,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="5" t="s">
         <v>25</v>
       </c>
@@ -2012,7 +2043,7 @@
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
@@ -2024,15 +2055,15 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>15</v>
@@ -2044,15 +2075,15 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>15</v>
@@ -2064,15 +2095,15 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
@@ -2084,337 +2115,333 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="5" t="s">
-        <v>61</v>
+      <c r="I34" s="9"/>
+      <c r="J34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="5" t="s">
-        <v>38</v>
+      <c r="I35" s="9"/>
+      <c r="J35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
-      <c r="A37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>64</v>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="6" t="s">
-        <v>65</v>
+      <c r="I37" s="9"/>
+      <c r="J37" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="4"/>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>67</v>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="6" t="s">
+      <c r="I38" s="9"/>
+      <c r="J38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
+      <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:10">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="4"/>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="4"/>
-      <c r="B41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="4"/>
-      <c r="B42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>12</v>
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="4"/>
-      <c r="B43" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>12</v>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="4"/>
-      <c r="B44" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>47</v>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="4"/>
-      <c r="B45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>15</v>
+      <c r="B45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="10"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="4"/>
-      <c r="B46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="7"/>
+      <c r="B46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="10"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="6" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
-      <c r="A47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>12</v>
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="4"/>
-      <c r="B48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="10"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="4"/>
-      <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
       <c r="J49" s="6" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="4"/>
-      <c r="B50" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:10">
-      <c r="A51" s="4"/>
-      <c r="B51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2422,39 +2449,39 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:10">
       <c r="A52" s="4"/>
-      <c r="B52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>15</v>
+      <c r="B52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:10">
       <c r="A53" s="4"/>
-      <c r="B53" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>15</v>
+      <c r="B53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2462,39 +2489,39 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:10">
       <c r="A54" s="4"/>
-      <c r="B54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="7"/>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="6" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
-      <c r="A55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>12</v>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2502,19 +2529,19 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>12</v>
+      <c r="B56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2522,19 +2549,19 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:10">
       <c r="A57" s="4"/>
-      <c r="B57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>15</v>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2542,691 +2569,813 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:10">
       <c r="A58" s="4"/>
-      <c r="B58" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:10">
       <c r="A59" s="4"/>
-      <c r="B59" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="6" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:10">
       <c r="A61" s="4"/>
-      <c r="B61" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="B61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="6" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:10">
-      <c r="A62" s="4"/>
-      <c r="B62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="7"/>
+      <c r="A62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="6" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:10">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="9">
-        <v>32</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="9">
-        <v>32</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:10">
       <c r="A65" s="4"/>
-      <c r="B65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="9">
-        <v>32</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="B65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="6" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:10">
       <c r="A66" s="4"/>
-      <c r="B66" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="9">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="B66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="6" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:10">
       <c r="A67" s="4"/>
-      <c r="B67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="B67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="6" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:10">
-      <c r="A68" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="9">
-        <v>19</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:10">
-      <c r="A69" s="11"/>
-      <c r="B69" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="6" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:10">
-      <c r="A70" s="11"/>
-      <c r="B70" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="10">
+        <v>32</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="71" customFormat="1" spans="1:10">
-      <c r="A71" s="11"/>
-      <c r="B71" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="10">
+        <v>32</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:10">
-      <c r="A72" s="11"/>
-      <c r="B72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="10">
+        <v>32</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:10">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:10">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:10">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:10">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="1:10">
-      <c r="A73" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="6" t="s">
+    <row r="77" customFormat="1" spans="1:10">
+      <c r="A77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:10">
-      <c r="A74" s="11"/>
-      <c r="B74" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="6" t="s">
+      <c r="D77" s="10">
+        <v>19</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:10">
-      <c r="A75" s="11"/>
-      <c r="B75" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:10">
-      <c r="A76" s="11"/>
-      <c r="B76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:10">
-      <c r="A77" s="11"/>
-      <c r="B77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="12">
-        <v>32</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:10">
       <c r="A78" s="11"/>
-      <c r="B78" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="10">
         <v>19</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="6" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:10">
       <c r="A79" s="11"/>
-      <c r="B79" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="12"/>
+      <c r="B79" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="6" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:10">
-      <c r="A80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80">
-        <v>19</v>
-      </c>
-      <c r="J80" t="s">
-        <v>25</v>
+      <c r="A80" s="11"/>
+      <c r="B80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:10">
-      <c r="A81" s="4"/>
-      <c r="B81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81">
-        <v>19</v>
-      </c>
-      <c r="J81" t="s">
-        <v>129</v>
+      <c r="A81" s="11"/>
+      <c r="B81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:10">
-      <c r="A82" s="4"/>
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s">
-        <v>94</v>
+      <c r="A82" s="11"/>
+      <c r="B82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:10">
-      <c r="A83" s="4"/>
-      <c r="B83" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="12">
-        <v>32</v>
-      </c>
+      <c r="A83" s="11"/>
+      <c r="B83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="7"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="6" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:10">
-      <c r="A84" s="4"/>
-      <c r="B84" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="12">
-        <v>256</v>
+      <c r="A84" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="6" t="s">
-        <v>133</v>
+      <c r="J84" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:10">
-      <c r="A85" s="4"/>
-      <c r="B85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="2:9">
-      <c r="B86" s="13"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" customFormat="1" spans="2:9">
-      <c r="B87" s="13"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" customFormat="1" spans="2:9">
-      <c r="B88" s="13"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="J85" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:10">
+      <c r="A86" s="11"/>
+      <c r="B86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:10">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:10">
+      <c r="A88" s="11"/>
+      <c r="B88" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="12">
+        <v>32</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" customFormat="1" spans="2:9">
-      <c r="B89" s="13"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="J88" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:10">
+      <c r="A89" s="11"/>
+      <c r="B89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="12">
+        <v>19</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" customFormat="1" spans="2:9">
-      <c r="B90" s="13"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="J89" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:10">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="12"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" customFormat="1" spans="2:9">
-      <c r="B91" s="13"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="J90" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:10">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="12"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" customFormat="1" spans="2:9">
-      <c r="B92" s="13"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="J91" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:10">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="12"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" customFormat="1" spans="2:9">
-      <c r="B93" s="13"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" customFormat="1" spans="2:9">
-      <c r="B94" s="13"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" customFormat="1" spans="2:9">
-      <c r="B95" s="13"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" customFormat="1" spans="2:9">
-      <c r="B96" s="13"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="J92" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:10">
+      <c r="A93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:10">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:10">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="12">
+        <v>32</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" customFormat="1" spans="2:9">
-      <c r="B97" s="13"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="J96" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:10">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="12">
+        <v>256</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" customFormat="1" spans="2:9">
-      <c r="B98" s="13"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="J97" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:10">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="12"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" customFormat="1" spans="2:9">
-      <c r="B99" s="13"/>
-      <c r="C99" s="1"/>
+      <c r="J98" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:10">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
+      <c r="J99" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="100" customFormat="1" spans="2:9">
       <c r="B100" s="13"/>
@@ -3238,20 +3387,2232 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
+    <row r="101" customFormat="1" spans="2:9">
+      <c r="B101" s="13"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" customFormat="1" spans="2:9">
+      <c r="B102" s="13"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" customFormat="1" spans="2:9">
+      <c r="B103" s="13"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" customFormat="1" spans="2:9">
+      <c r="B104" s="13"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" customFormat="1" spans="2:9">
+      <c r="B105" s="13"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" customFormat="1" spans="2:9">
+      <c r="B106" s="13"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" customFormat="1" spans="2:9">
+      <c r="B107" s="13"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" customFormat="1" spans="2:9">
+      <c r="B108" s="13"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" customFormat="1" spans="2:9">
+      <c r="B109" s="13"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" customFormat="1" spans="2:9">
+      <c r="B110" s="13"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" customFormat="1" spans="2:9">
+      <c r="B111" s="13"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" customFormat="1" spans="2:9">
+      <c r="B112" s="13"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" customFormat="1" spans="2:9">
+      <c r="B113" s="13"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A16:A23"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A61"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="A93:A99"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E1">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:H1">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.6583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>128</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:10">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>128</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:10">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:10">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:10">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:10">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>256</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:10">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:10">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
+      <c r="A39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:10">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:10">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:10">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:10">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:10">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:10">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:10">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:10">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:10">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:10">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:10">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:10">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:10">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:10">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:10">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:10">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:10">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:10">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:10">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:10">
+      <c r="A62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:10">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:10">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:10">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:10">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:10">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:10">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:10">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:10">
+      <c r="A70" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="10">
+        <v>32</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:10">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="10">
+        <v>32</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:10">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="10">
+        <v>32</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:10">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:10">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:10">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:10">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:10">
+      <c r="A77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="10">
+        <v>19</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:10">
+      <c r="A78" s="11"/>
+      <c r="B78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="10">
+        <v>19</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:10">
+      <c r="A79" s="11"/>
+      <c r="B79" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:10">
+      <c r="A80" s="11"/>
+      <c r="B80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:10">
+      <c r="A81" s="11"/>
+      <c r="B81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:10">
+      <c r="A82" s="11"/>
+      <c r="B82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:10">
+      <c r="A83" s="11"/>
+      <c r="B83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:10">
+      <c r="A84" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:10">
+      <c r="A85" s="11"/>
+      <c r="B85" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:10">
+      <c r="A86" s="11"/>
+      <c r="B86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:10">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:10">
+      <c r="A88" s="11"/>
+      <c r="B88" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="12">
+        <v>32</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:10">
+      <c r="A89" s="11"/>
+      <c r="B89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="12">
+        <v>19</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:10">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:10">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:10">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:10">
+      <c r="A93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:10">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:10">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="12">
+        <v>32</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:10">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="12">
+        <v>256</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:10">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:10">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="2:9">
+      <c r="B100" s="13"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" customFormat="1" spans="2:9">
+      <c r="B101" s="13"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" customFormat="1" spans="2:9">
+      <c r="B102" s="13"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" customFormat="1" spans="2:9">
+      <c r="B103" s="13"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" customFormat="1" spans="2:9">
+      <c r="B104" s="13"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" customFormat="1" spans="2:9">
+      <c r="B105" s="13"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" customFormat="1" spans="2:9">
+      <c r="B106" s="13"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" customFormat="1" spans="2:9">
+      <c r="B107" s="13"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" customFormat="1" spans="2:9">
+      <c r="B108" s="13"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" customFormat="1" spans="2:9">
+      <c r="B109" s="13"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" customFormat="1" spans="2:9">
+      <c r="B110" s="13"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" customFormat="1" spans="2:9">
+      <c r="B111" s="13"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" customFormat="1" spans="2:9">
+      <c r="B112" s="13"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" customFormat="1" spans="2:9">
+      <c r="B113" s="13"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A61"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="A93:A99"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
